--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1863,10 +1875,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1910,28 +1922,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1956,28 +1968,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2135,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2182,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2228,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2366,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2413,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2459,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2626,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2661,28 +2673,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2719,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2874,10 +2886,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2921,28 +2933,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2967,28 +2979,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3117,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3152,28 +3164,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3210,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3307,10 +3319,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3354,28 +3366,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3400,28 +3412,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3567,10 +3579,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3614,28 +3626,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3660,28 +3672,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3740,10 +3752,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3787,28 +3799,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3833,28 +3845,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3942,10 +3954,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3989,28 +4001,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4035,28 +4047,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4144,10 +4156,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4191,28 +4203,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4237,28 +4249,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4375,10 +4387,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4422,28 +4434,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4468,28 +4480,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4577,10 +4589,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4624,28 +4636,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4670,28 +4682,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4779,10 +4791,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4826,28 +4838,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4872,28 +4884,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5010,10 +5022,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5057,28 +5069,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5103,28 +5115,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5241,10 +5253,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5288,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5334,28 +5346,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5645,10 +5657,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5692,28 +5704,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5738,28 +5750,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5888,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5923,28 +5935,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5981,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6107,10 +6119,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6154,28 +6166,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6200,28 +6212,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6280,10 +6292,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6327,28 +6339,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6373,28 +6385,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6494,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6541,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6587,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6655,10 +6667,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6702,28 +6714,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6748,28 +6760,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6828,10 +6840,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6875,28 +6887,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6921,28 +6933,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7071,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7106,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7164,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7261,10 +7273,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7308,28 +7320,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7354,28 +7366,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7434,10 +7446,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7481,28 +7493,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7527,28 +7539,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7636,10 +7648,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7683,28 +7695,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7729,28 +7741,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7838,10 +7850,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7885,28 +7897,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7931,28 +7943,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8040,10 +8052,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8087,28 +8099,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8133,28 +8145,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8242,10 +8254,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8289,28 +8301,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8335,28 +8347,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8444,10 +8456,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8491,28 +8503,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8537,28 +8549,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8617,10 +8629,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8664,28 +8676,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8710,28 +8722,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8790,10 +8802,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8837,28 +8849,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8883,28 +8895,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8975,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
